--- a/data/state_election_results/utah_president.xlsx
+++ b/data/state_election_results/utah_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2F4916-A47B-9C4C-BADA-205511884221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEBEA54-3D5A-834F-BB82-65106F9BDEC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7100" yWindow="6200" windowWidth="24840" windowHeight="13440" xr2:uid="{3E45E240-A933-4D49-8269-5FE30D47EF7B}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Utah County</t>
   </si>
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>Beaver County</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>biden.percent</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -143,7 +143,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -186,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,32 +503,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE542A2-2C4C-574A-88FD-1926F7B40A6B}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>2695</v>
@@ -545,7 +543,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>21548</v>
@@ -562,7 +560,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>38032</v>
@@ -579,7 +577,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>6693</v>
@@ -596,7 +594,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>496</v>
@@ -613,7 +611,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>104135</v>
@@ -630,7 +628,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>7513</v>
@@ -647,7 +645,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>4207</v>
@@ -664,7 +662,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>2158</v>
@@ -698,7 +696,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>18989</v>
@@ -715,7 +713,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>5087</v>
@@ -732,7 +730,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>2998</v>
@@ -749,7 +747,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>5404</v>
@@ -766,7 +764,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>5181</v>
@@ -783,7 +781,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>773</v>
@@ -800,7 +798,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>1157</v>
@@ -817,7 +815,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>230174</v>
@@ -834,7 +832,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>3535</v>
@@ -851,7 +849,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>10459</v>
@@ -868,7 +866,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>9052</v>
@@ -885,7 +883,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>10252</v>
@@ -902,7 +900,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>21014</v>
@@ -919,7 +917,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>13261</v>
@@ -953,7 +951,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>10795</v>
@@ -970,7 +968,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>67294</v>
@@ -987,7 +985,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>1229</v>
@@ -1004,7 +1002,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>65949</v>
